--- a/example.xlsx
+++ b/example.xlsx
@@ -491,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" sqref="F25"/>
@@ -578,431 +578,6 @@
       <c r="M1" t="inlineStr">
         <is>
           <t>Удобное время для звонка</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>04.09.2023 13:02:05</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3838</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>04.09.2023 13:02:18</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Алал</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>04.09.2023 13:19:39</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>998935492550</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Лв</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Лслс</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.06.2007</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04.09.2023 13:39:57</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>998935492550</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Овао</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Очоч</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.02.1989</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Ташкент/Учтепа</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>04.09.2023 13:44:37</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>998935492550</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Очоч</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Овов</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.02.1993</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Ташкент/Юнусабад</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>04.09.2023 14:58:31</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>998935492550</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Вово</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Овов</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.02.1993</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Ташкент/Сергели</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>04.09.2023 15:09:19</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>998935492550</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Оаоа</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Лл</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>11.03.1994</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Ташкент/Учтепа</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>04.09.2023 15:10:40</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>998935492550</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Овоа</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Буканов</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>11.07.1994</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Нукус нукус</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>04.09.2023 15:20:00</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>998935487201</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Осос</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Сосо</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>11.11.1999</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Ташкент/Мирзо-Улугбек</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Среднее</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Хорошо</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Хорошо знаю</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Отлично владею</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Овово</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>04.09.2023 15:20:54</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>998935492550</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Воао</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Вово</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>17.02.1993</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Нукус дада</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Среднее</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Хорошо</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Хорошо знаю</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Отлично владею</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Уборщик</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Никогда</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>04.09.2023 15:22:57</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>998934444444</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Оаг</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Говно</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>18.06.1999</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Ташкент/Юнусабад</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Среднее специальное</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Не владею русским языком</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Отлично знаю</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Не владею английским языком</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Гне</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>04.09.2023 23:15:38</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>998935492550</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>wdwd</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ff</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.09.2006</t>
         </is>
       </c>
     </row>
